--- a/data/01.Raw/Road_description/road_description.xlsx
+++ b/data/01.Raw/Road_description/road_description.xlsx
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <f>RANDBETWEEN(0,10000)</f>
+        <v>590433</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>

--- a/data/01.Raw/Road_description/road_description.xlsx
+++ b/data/01.Raw/Road_description/road_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\leo\double-diplome\COURSES\year 2\Master thesis\code\master_thesis\data\01.Raw\Road_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A99009-5E1C-4E21-A389-E477FB241628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6565A-E826-432A-AC14-FDD9E7D73174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,22 +35,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="6">
   <si>
-    <t>Type 1</t>
-  </si>
-  <si>
-    <t>Type 2</t>
-  </si>
-  <si>
-    <t>Type3</t>
-  </si>
-  <si>
-    <t>Type 4</t>
-  </si>
-  <si>
     <t>length (m)</t>
   </si>
   <si>
     <t>width (m)</t>
+  </si>
+  <si>
+    <t>European &amp; National Highways (Type 1)</t>
+  </si>
+  <si>
+    <t>Country Road (Type 2)</t>
+  </si>
+  <si>
+    <t>Municipale Roads (Type3)</t>
+  </si>
+  <si>
+    <t>Gravel Roads (Type4)</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,16 +415,16 @@
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -432,7 +432,7 @@
         <v>1935</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>8344</v>
@@ -450,7 +450,7 @@
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -470,7 +470,7 @@
         <v>1935</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -488,7 +488,7 @@
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>1935</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -526,7 +526,7 @@
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>1942</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -564,7 +564,7 @@
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1942</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>5955</v>
@@ -602,7 +602,7 @@
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -622,7 +622,7 @@
         <v>1942</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -640,7 +640,7 @@
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>1951</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>9363</v>
@@ -672,7 +672,7 @@
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>1951</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16"/>
       <c r="D16">
@@ -698,7 +698,7 @@
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17"/>
       <c r="D17">
@@ -712,7 +712,7 @@
         <v>1951</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>354</v>
@@ -724,7 +724,7 @@
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -738,7 +738,7 @@
         <v>1951</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -750,7 +750,7 @@
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -764,7 +764,7 @@
         <v>1959</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -776,7 +776,7 @@
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -790,7 +790,7 @@
         <v>1959</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -802,7 +802,7 @@
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -816,7 +816,7 @@
         <v>1959</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -828,7 +828,7 @@
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -842,7 +842,7 @@
         <v>1959</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -854,7 +854,7 @@
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -868,7 +868,7 @@
         <v>1968</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -880,7 +880,7 @@
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -894,7 +894,7 @@
         <v>1968</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32"/>
       <c r="D32">
@@ -906,7 +906,7 @@
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33"/>
       <c r="D33">
@@ -920,7 +920,7 @@
         <v>1968</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34"/>
       <c r="D34">
@@ -932,7 +932,7 @@
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35"/>
       <c r="D35">
@@ -946,7 +946,7 @@
         <v>1968</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>6285</v>
@@ -958,7 +958,7 @@
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>1968</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>4301</v>
@@ -984,7 +984,7 @@
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -998,7 +998,7 @@
         <v>1968</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>105</v>
@@ -1010,7 +1010,7 @@
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -1024,7 +1024,7 @@
         <v>1974</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>2652</v>
@@ -1036,7 +1036,7 @@
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1050,7 +1050,7 @@
         <v>1974</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>5576</v>
@@ -1062,7 +1062,7 @@
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1076,7 +1076,7 @@
         <v>1974</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>9299</v>
@@ -1088,7 +1088,7 @@
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1102,7 +1102,7 @@
         <v>1974</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C48"/>
       <c r="D48">
@@ -1114,7 +1114,7 @@
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49"/>
       <c r="D49">
@@ -1128,7 +1128,7 @@
         <v>1974</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C50"/>
       <c r="D50">
@@ -1140,7 +1140,7 @@
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51"/>
       <c r="D51">
@@ -1154,7 +1154,7 @@
         <v>1974</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C52"/>
       <c r="D52">
@@ -1166,7 +1166,7 @@
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53"/>
       <c r="D53">
@@ -1180,7 +1180,7 @@
         <v>1974</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C54"/>
       <c r="D54">
@@ -1192,7 +1192,7 @@
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55"/>
       <c r="D55">
@@ -1206,7 +1206,7 @@
         <v>1981</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C56"/>
       <c r="D56">
@@ -1218,7 +1218,7 @@
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C57"/>
       <c r="D57">
@@ -1232,7 +1232,7 @@
         <v>1981</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -1244,7 +1244,7 @@
     <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -1258,7 +1258,7 @@
         <v>1981</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -1270,7 +1270,7 @@
     <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -1284,7 +1284,7 @@
         <v>1981</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -1296,7 +1296,7 @@
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -1310,7 +1310,7 @@
         <v>1981</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -1322,7 +1322,7 @@
     <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -1336,7 +1336,7 @@
         <v>1981</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C66"/>
       <c r="D66">
@@ -1348,7 +1348,7 @@
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67"/>
       <c r="D67">
@@ -1362,7 +1362,7 @@
         <v>1981</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C68"/>
       <c r="D68">
@@ -1374,7 +1374,7 @@
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69"/>
       <c r="D69">
@@ -1388,7 +1388,7 @@
         <v>1985</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>2797</v>
@@ -1400,7 +1400,7 @@
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>11</v>
@@ -1414,7 +1414,7 @@
         <v>1985</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>46</v>
@@ -1426,7 +1426,7 @@
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>12</v>
@@ -1440,7 +1440,7 @@
         <v>1985</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>6809</v>
@@ -1452,7 +1452,7 @@
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1466,7 +1466,7 @@
         <v>1985</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>6322</v>
@@ -1478,7 +1478,7 @@
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1492,7 +1492,7 @@
         <v>1985</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>795</v>
@@ -1504,7 +1504,7 @@
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1518,7 +1518,7 @@
         <v>1985</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>5658</v>
@@ -1530,7 +1530,7 @@
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>1985</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>2724</v>
@@ -1556,7 +1556,7 @@
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1570,7 +1570,7 @@
         <v>1985</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>9074</v>
@@ -1582,7 +1582,7 @@
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -1596,7 +1596,7 @@
         <v>1985</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C86"/>
       <c r="D86">
@@ -1608,7 +1608,7 @@
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87"/>
       <c r="D87">
@@ -1622,7 +1622,7 @@
         <v>1989</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88"/>
       <c r="D88">
@@ -1634,7 +1634,7 @@
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89"/>
       <c r="D89">
@@ -1648,7 +1648,7 @@
         <v>1989</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90"/>
       <c r="D90">
@@ -1660,7 +1660,7 @@
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91"/>
       <c r="D91">
@@ -1674,7 +1674,7 @@
         <v>1989</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C92"/>
       <c r="D92">
@@ -1686,7 +1686,7 @@
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93"/>
       <c r="D93">
@@ -1700,7 +1700,7 @@
         <v>1989</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C94"/>
       <c r="D94">
@@ -1712,7 +1712,7 @@
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C95"/>
       <c r="D95">
@@ -1726,7 +1726,7 @@
         <v>1989</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96"/>
       <c r="D96">
@@ -1738,7 +1738,7 @@
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C97"/>
       <c r="D97">
@@ -1752,7 +1752,7 @@
         <v>1989</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -1764,7 +1764,7 @@
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -1778,7 +1778,7 @@
         <v>1989</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -1790,7 +1790,7 @@
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C101"/>
       <c r="D101"/>
@@ -1804,7 +1804,7 @@
         <v>1989</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C102"/>
       <c r="D102">
@@ -1816,7 +1816,7 @@
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C103"/>
       <c r="D103">
@@ -1830,7 +1830,7 @@
         <v>1994</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C104"/>
       <c r="D104">
@@ -1842,7 +1842,7 @@
     <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C105"/>
       <c r="D105">
@@ -1856,7 +1856,7 @@
         <v>1994</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C106"/>
       <c r="D106">
@@ -1868,7 +1868,7 @@
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C107"/>
       <c r="D107">
@@ -1882,7 +1882,7 @@
         <v>1994</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C108"/>
       <c r="D108">
@@ -1894,7 +1894,7 @@
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C109"/>
       <c r="D109">
@@ -1908,7 +1908,7 @@
         <v>1994</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C110"/>
       <c r="D110">
@@ -1920,7 +1920,7 @@
     <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111"/>
       <c r="D111">
@@ -1934,7 +1934,7 @@
         <v>1994</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>2910</v>
@@ -1946,7 +1946,7 @@
     <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -1960,7 +1960,7 @@
         <v>1994</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>6735</v>
@@ -1972,7 +1972,7 @@
     <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -1986,7 +1986,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>8721</v>
@@ -1998,7 +1998,7 @@
     <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -2012,7 +2012,7 @@
         <v>1994</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
@@ -2024,7 +2024,7 @@
     <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -2038,7 +2038,7 @@
         <v>1994</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
@@ -2050,7 +2050,7 @@
     <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
@@ -2064,7 +2064,7 @@
         <v>1994</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -2076,7 +2076,7 @@
     <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -2090,7 +2090,7 @@
         <v>1998</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -2102,7 +2102,7 @@
     <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -2116,7 +2116,7 @@
         <v>1998</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -2128,7 +2128,7 @@
     <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -2142,7 +2142,7 @@
         <v>1998</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -2154,7 +2154,7 @@
     <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -2168,7 +2168,7 @@
         <v>1998</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -2180,7 +2180,7 @@
     <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -2194,7 +2194,7 @@
         <v>1998</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -2206,7 +2206,7 @@
     <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -2220,7 +2220,7 @@
         <v>1998</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -2232,7 +2232,7 @@
     <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -2246,7 +2246,7 @@
         <v>1998</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -2258,7 +2258,7 @@
     <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -2272,7 +2272,7 @@
         <v>1998</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C138"/>
       <c r="D138">
@@ -2284,7 +2284,7 @@
     <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C139"/>
       <c r="D139">
@@ -2298,7 +2298,7 @@
         <v>1998</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C140"/>
       <c r="D140">
@@ -2310,7 +2310,7 @@
     <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C141"/>
       <c r="D141">
@@ -2324,7 +2324,7 @@
         <v>1998</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C142"/>
       <c r="D142">
@@ -2336,7 +2336,7 @@
     <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C143"/>
       <c r="D143">
@@ -2350,7 +2350,7 @@
         <v>1998</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C144"/>
       <c r="D144">
@@ -2362,7 +2362,7 @@
     <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C145"/>
       <c r="D145">
@@ -2376,7 +2376,7 @@
         <v>2001</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C146"/>
       <c r="D146">
@@ -2388,7 +2388,7 @@
     <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C147"/>
       <c r="D147">
@@ -2402,7 +2402,7 @@
         <v>2001</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C148"/>
       <c r="D148">
@@ -2414,7 +2414,7 @@
     <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C149"/>
       <c r="D149">
@@ -2428,7 +2428,7 @@
         <v>2001</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C150"/>
       <c r="D150">
@@ -2440,7 +2440,7 @@
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C151"/>
       <c r="D151">
@@ -2454,7 +2454,7 @@
         <v>2001</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C152"/>
       <c r="D152">
@@ -2466,7 +2466,7 @@
     <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C153"/>
       <c r="D153">
@@ -2480,7 +2480,7 @@
         <v>2001</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C154"/>
       <c r="D154">
@@ -2492,7 +2492,7 @@
     <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C155"/>
       <c r="D155">
@@ -2506,7 +2506,7 @@
         <v>2001</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>7139</v>
@@ -2518,7 +2518,7 @@
     <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>4</v>
@@ -2532,7 +2532,7 @@
         <v>2001</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>9528</v>
@@ -2544,7 +2544,7 @@
     <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -2558,7 +2558,7 @@
         <v>2001</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>9668</v>
@@ -2570,7 +2570,7 @@
     <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>2001</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>4777</v>
@@ -2596,7 +2596,7 @@
     <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>12</v>
@@ -2610,7 +2610,7 @@
         <v>2005</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>103</v>
@@ -2622,7 +2622,7 @@
     <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>8</v>
@@ -2636,7 +2636,7 @@
         <v>2005</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>1046</v>
@@ -2648,7 +2648,7 @@
     <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>12</v>
@@ -2662,7 +2662,7 @@
         <v>2005</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>1328</v>
@@ -2674,7 +2674,7 @@
     <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C169">
         <v>10</v>
@@ -2688,7 +2688,7 @@
         <v>2005</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>19</v>
@@ -2700,7 +2700,7 @@
     <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>5</v>
@@ -2714,7 +2714,7 @@
         <v>2005</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C172"/>
       <c r="D172">
@@ -2726,7 +2726,7 @@
     <row r="173" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C173"/>
       <c r="D173">
@@ -2740,7 +2740,7 @@
         <v>2005</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C174"/>
       <c r="D174">
@@ -2752,7 +2752,7 @@
     <row r="175" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C175"/>
       <c r="D175">
@@ -2766,7 +2766,7 @@
         <v>2005</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C176"/>
       <c r="D176">
@@ -2778,7 +2778,7 @@
     <row r="177" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C177"/>
       <c r="D177">
@@ -2792,7 +2792,7 @@
         <v>2005</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C178"/>
       <c r="D178">
@@ -2804,7 +2804,7 @@
     <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C179"/>
       <c r="D179">
@@ -2818,7 +2818,7 @@
         <v>2005</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C180"/>
       <c r="D180">
@@ -2830,7 +2830,7 @@
     <row r="181" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C181"/>
       <c r="D181">
@@ -2844,7 +2844,7 @@
         <v>2005</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C182"/>
       <c r="D182">
@@ -2856,7 +2856,7 @@
     <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C183"/>
       <c r="D183">
@@ -2870,7 +2870,7 @@
         <v>2005</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C184"/>
       <c r="D184">
@@ -2882,7 +2882,7 @@
     <row r="185" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C185"/>
       <c r="D185">
@@ -2896,7 +2896,7 @@
         <v>2005</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C186">
         <v>7529</v>
@@ -2908,7 +2908,7 @@
     <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>12</v>
@@ -2922,7 +2922,7 @@
         <v>2005</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C188">
         <v>6097</v>
@@ -2934,7 +2934,7 @@
     <row r="189" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -2948,7 +2948,7 @@
         <v>2005</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C190">
         <v>5023</v>
@@ -2960,7 +2960,7 @@
     <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -2974,7 +2974,7 @@
         <v>2005</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C192">
         <v>6217</v>
@@ -2986,7 +2986,7 @@
     <row r="193" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         <v>2005</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>4260</v>
@@ -3012,7 +3012,7 @@
     <row r="195" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>5</v>
@@ -3026,7 +3026,7 @@
         <v>2005</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C196">
         <v>4131</v>
@@ -3038,7 +3038,7 @@
     <row r="197" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -3052,7 +3052,7 @@
         <v>2005</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>9465</v>
@@ -3064,7 +3064,7 @@
     <row r="199" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C199">
         <v>12</v>
@@ -3078,7 +3078,7 @@
         <v>2005</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C200">
         <v>3140</v>
@@ -3090,7 +3090,7 @@
     <row r="201" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>10</v>
@@ -3104,7 +3104,7 @@
         <v>2008</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>2761</v>
@@ -3116,7 +3116,7 @@
     <row r="203" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <v>12</v>
@@ -3130,7 +3130,7 @@
         <v>2008</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C204"/>
       <c r="D204">
@@ -3142,7 +3142,7 @@
     <row r="205" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C205"/>
       <c r="D205">
@@ -3156,7 +3156,7 @@
         <v>2008</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C206"/>
       <c r="D206">
@@ -3168,7 +3168,7 @@
     <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C207"/>
       <c r="D207">
@@ -3182,7 +3182,7 @@
         <v>2008</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C208"/>
       <c r="D208">
@@ -3194,7 +3194,7 @@
     <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C209"/>
       <c r="D209">
@@ -3208,7 +3208,7 @@
         <v>2008</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C210"/>
       <c r="D210">
@@ -3220,7 +3220,7 @@
     <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C211"/>
       <c r="D211">
@@ -3234,7 +3234,7 @@
         <v>2008</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C212"/>
       <c r="D212">
@@ -3246,7 +3246,7 @@
     <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213"/>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C213"/>
       <c r="D213">
@@ -3260,7 +3260,7 @@
         <v>2008</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C214"/>
       <c r="D214">
@@ -3272,7 +3272,7 @@
     <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215"/>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C215"/>
       <c r="D215">
@@ -3286,7 +3286,7 @@
         <v>2008</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C216"/>
       <c r="D216">
@@ -3298,7 +3298,7 @@
     <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217"/>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C217"/>
       <c r="D217">
@@ -3312,7 +3312,7 @@
         <v>2008</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C218"/>
       <c r="D218"/>
@@ -3324,7 +3324,7 @@
     <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219"/>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C219"/>
       <c r="D219"/>
@@ -3338,7 +3338,7 @@
         <v>2008</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C220"/>
       <c r="D220"/>
@@ -3350,7 +3350,7 @@
     <row r="221" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221"/>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C221"/>
       <c r="D221"/>
@@ -3364,7 +3364,7 @@
         <v>2008</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C222"/>
       <c r="D222"/>
@@ -3376,7 +3376,7 @@
     <row r="223" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223"/>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C223"/>
       <c r="D223"/>
@@ -3390,7 +3390,7 @@
         <v>2008</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C224"/>
       <c r="D224"/>
@@ -3402,7 +3402,7 @@
     <row r="225" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225"/>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C225"/>
       <c r="D225"/>
@@ -3416,7 +3416,7 @@
         <v>2008</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C226"/>
       <c r="D226"/>
@@ -3428,7 +3428,7 @@
     <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227"/>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C227"/>
       <c r="D227"/>
@@ -3442,7 +3442,7 @@
         <v>2008</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C228"/>
       <c r="D228"/>
@@ -3454,7 +3454,7 @@
     <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229"/>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C229"/>
       <c r="D229"/>
@@ -3468,7 +3468,7 @@
         <v>2008</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C230"/>
       <c r="D230"/>
@@ -3480,7 +3480,7 @@
     <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231"/>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C231"/>
       <c r="D231"/>
@@ -3494,7 +3494,7 @@
         <v>2008</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C232"/>
       <c r="D232"/>
@@ -3506,7 +3506,7 @@
     <row r="233" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233"/>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C233"/>
       <c r="D233"/>
@@ -3520,7 +3520,7 @@
         <v>2010</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C234"/>
       <c r="D234"/>
@@ -3532,7 +3532,7 @@
     <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235"/>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C235"/>
       <c r="D235"/>
@@ -3546,7 +3546,7 @@
         <v>2010</v>
       </c>
       <c r="B236" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C236"/>
       <c r="D236">
@@ -3558,7 +3558,7 @@
     <row r="237" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C237"/>
       <c r="D237">
@@ -3572,7 +3572,7 @@
         <v>2010</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C238"/>
       <c r="D238">
@@ -3584,7 +3584,7 @@
     <row r="239" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C239"/>
       <c r="D239">
@@ -3598,7 +3598,7 @@
         <v>2010</v>
       </c>
       <c r="B240" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C240"/>
       <c r="D240">
@@ -3610,7 +3610,7 @@
     <row r="241" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241"/>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C241"/>
       <c r="D241">
@@ -3624,7 +3624,7 @@
         <v>2010</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C242"/>
       <c r="D242">
@@ -3636,7 +3636,7 @@
     <row r="243" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243"/>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C243"/>
       <c r="D243">
@@ -3650,7 +3650,7 @@
         <v>2010</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C244"/>
       <c r="D244">
@@ -3662,7 +3662,7 @@
     <row r="245" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245"/>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C245"/>
       <c r="D245">
@@ -3676,7 +3676,7 @@
         <v>2010</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C246"/>
       <c r="D246">
@@ -3688,7 +3688,7 @@
     <row r="247" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247"/>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C247"/>
       <c r="D247">
@@ -3702,7 +3702,7 @@
         <v>2010</v>
       </c>
       <c r="B248" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>2077</v>
@@ -3714,7 +3714,7 @@
     <row r="249" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249"/>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C249">
         <v>6</v>
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C250">
         <v>9607</v>
@@ -3740,7 +3740,7 @@
     <row r="251" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251"/>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C251">
         <v>6</v>
@@ -3754,7 +3754,7 @@
         <v>2010</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C252">
         <v>9030</v>
@@ -3766,7 +3766,7 @@
     <row r="253" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253"/>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C253">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>2010</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C254">
         <v>1451</v>
@@ -3792,7 +3792,7 @@
     <row r="255" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255"/>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -3806,7 +3806,7 @@
         <v>2010</v>
       </c>
       <c r="B256" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C256">
         <v>3791</v>
@@ -3818,7 +3818,7 @@
     <row r="257" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257"/>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C257">
         <v>9</v>
@@ -3832,7 +3832,7 @@
         <v>2010</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>8237</v>
@@ -3844,7 +3844,7 @@
     <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259"/>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C259">
         <v>9</v>
@@ -3858,7 +3858,7 @@
         <v>2010</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C260">
         <v>9572</v>
@@ -3870,7 +3870,7 @@
     <row r="261" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261"/>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C261">
         <v>6</v>
@@ -3884,7 +3884,7 @@
         <v>2012</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C262"/>
       <c r="D262">
@@ -3896,7 +3896,7 @@
     <row r="263" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263"/>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C263"/>
       <c r="D263">
@@ -3910,7 +3910,7 @@
         <v>2012</v>
       </c>
       <c r="B264" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C264"/>
       <c r="D264">
@@ -3922,7 +3922,7 @@
     <row r="265" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265"/>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C265"/>
       <c r="D265">
@@ -3936,7 +3936,7 @@
         <v>2012</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C266"/>
       <c r="D266">
@@ -3948,7 +3948,7 @@
     <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267"/>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C267"/>
       <c r="D267">
@@ -3962,7 +3962,7 @@
         <v>2012</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C268"/>
       <c r="D268">
@@ -3974,7 +3974,7 @@
     <row r="269" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269"/>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C269"/>
       <c r="D269">
@@ -3988,7 +3988,7 @@
         <v>2012</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C270"/>
       <c r="D270">
@@ -4000,7 +4000,7 @@
     <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271"/>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C271"/>
       <c r="D271">
@@ -4014,7 +4014,7 @@
         <v>2012</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -4026,7 +4026,7 @@
     <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273"/>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -4040,7 +4040,7 @@
         <v>2012</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -4052,7 +4052,7 @@
     <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275"/>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -4066,7 +4066,7 @@
         <v>2012</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -4078,7 +4078,7 @@
     <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277"/>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -4092,7 +4092,7 @@
         <v>2012</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -4104,7 +4104,7 @@
     <row r="279" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279"/>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -4118,7 +4118,7 @@
         <v>2012</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C280"/>
       <c r="D280">
@@ -4130,7 +4130,7 @@
     <row r="281" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281"/>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C281"/>
       <c r="D281">
@@ -4144,7 +4144,7 @@
         <v>2012</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C282"/>
       <c r="D282">
@@ -4156,7 +4156,7 @@
     <row r="283" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283"/>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C283"/>
       <c r="D283">
@@ -4170,7 +4170,7 @@
         <v>2012</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C284"/>
       <c r="D284">
@@ -4182,7 +4182,7 @@
     <row r="285" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285"/>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C285"/>
       <c r="D285">
@@ -4196,7 +4196,7 @@
         <v>2012</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C286"/>
       <c r="D286">
@@ -4208,7 +4208,7 @@
     <row r="287" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287"/>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C287"/>
       <c r="D287">
@@ -4222,7 +4222,7 @@
         <v>2012</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C288"/>
       <c r="D288">
@@ -4234,7 +4234,7 @@
     <row r="289" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289"/>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C289"/>
       <c r="D289">
@@ -4248,7 +4248,7 @@
         <v>2014</v>
       </c>
       <c r="B290" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C290"/>
       <c r="D290">
@@ -4260,7 +4260,7 @@
     <row r="291" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291"/>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C291"/>
       <c r="D291">
@@ -4274,7 +4274,7 @@
         <v>2014</v>
       </c>
       <c r="B292" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>3615</v>
@@ -4286,7 +4286,7 @@
     <row r="293" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293"/>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C293">
         <v>5</v>
@@ -4300,7 +4300,7 @@
         <v>2014</v>
       </c>
       <c r="B294" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>7963</v>
@@ -4312,7 +4312,7 @@
     <row r="295" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295"/>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>8</v>
@@ -4326,7 +4326,7 @@
         <v>2014</v>
       </c>
       <c r="B296" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C296">
         <v>481</v>
@@ -4338,7 +4338,7 @@
     <row r="297" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297"/>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>12</v>
@@ -4352,7 +4352,7 @@
         <v>2014</v>
       </c>
       <c r="B298" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C298">
         <v>293</v>
@@ -4364,7 +4364,7 @@
     <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299"/>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>9</v>
@@ -4378,7 +4378,7 @@
         <v>2014</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C300">
         <v>1402</v>
@@ -4390,7 +4390,7 @@
     <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301"/>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C301">
         <v>10</v>
@@ -4404,7 +4404,7 @@
         <v>2014</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C302">
         <v>4988</v>
@@ -4416,7 +4416,7 @@
     <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303"/>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C303">
         <v>10</v>
@@ -4430,7 +4430,7 @@
         <v>2014</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>7360</v>
@@ -4442,7 +4442,7 @@
     <row r="305" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305"/>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C305">
         <v>6</v>
@@ -4456,7 +4456,7 @@
         <v>2018</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C306">
         <v>9090</v>
@@ -4468,7 +4468,7 @@
     <row r="307" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307"/>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C307">
         <v>4</v>
@@ -4482,7 +4482,7 @@
         <v>2018</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C308"/>
       <c r="D308">
@@ -4494,7 +4494,7 @@
     <row r="309" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309"/>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C309"/>
       <c r="D309">
@@ -4508,7 +4508,7 @@
         <v>2018</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C310"/>
       <c r="D310">
@@ -4520,7 +4520,7 @@
     <row r="311" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311"/>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C311"/>
       <c r="D311">
@@ -4534,7 +4534,7 @@
         <v>2018</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C312"/>
       <c r="D312">
@@ -4546,7 +4546,7 @@
     <row r="313" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313"/>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C313"/>
       <c r="D313">
@@ -4560,7 +4560,7 @@
         <v>2018</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C314"/>
       <c r="D314">
@@ -4572,7 +4572,7 @@
     <row r="315" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315"/>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C315"/>
       <c r="D315">
@@ -4586,7 +4586,7 @@
         <v>2018</v>
       </c>
       <c r="B316" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C316"/>
       <c r="D316">
@@ -4598,7 +4598,7 @@
     <row r="317" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317"/>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C317"/>
       <c r="D317">
@@ -4612,7 +4612,7 @@
         <v>2018</v>
       </c>
       <c r="B318" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C318"/>
       <c r="D318">
@@ -4624,7 +4624,7 @@
     <row r="319" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319"/>
       <c r="B319" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C319"/>
       <c r="D319">
@@ -4638,7 +4638,7 @@
         <v>2018</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C320"/>
       <c r="D320"/>
@@ -4650,7 +4650,7 @@
     <row r="321" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321"/>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C321"/>
       <c r="D321"/>
@@ -4664,7 +4664,7 @@
         <v>2018</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C322"/>
       <c r="D322"/>
@@ -4676,7 +4676,7 @@
     <row r="323" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323"/>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C323"/>
       <c r="D323"/>
@@ -4690,7 +4690,7 @@
         <v>2018</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C324"/>
       <c r="D324"/>
@@ -4702,7 +4702,7 @@
     <row r="325" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325"/>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C325"/>
       <c r="D325"/>
@@ -4716,7 +4716,7 @@
         <v>2018</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C326"/>
       <c r="D326"/>
@@ -4728,7 +4728,7 @@
     <row r="327" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327"/>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C327"/>
       <c r="D327"/>
@@ -4742,7 +4742,7 @@
         <v>2018</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C328"/>
       <c r="D328"/>
@@ -4754,7 +4754,7 @@
     <row r="329" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329"/>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C329"/>
       <c r="D329"/>
@@ -4768,7 +4768,7 @@
         <v>2018</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C330"/>
       <c r="D330">
@@ -4780,7 +4780,7 @@
     <row r="331" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331"/>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C331"/>
       <c r="D331">
@@ -4794,7 +4794,7 @@
         <v>2021</v>
       </c>
       <c r="B332" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C332"/>
       <c r="D332">
@@ -4806,7 +4806,7 @@
     <row r="333" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333"/>
       <c r="B333" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C333"/>
       <c r="D333">
@@ -4820,7 +4820,7 @@
         <v>2021</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C334"/>
       <c r="D334">
@@ -4832,7 +4832,7 @@
     <row r="335" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335"/>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C335"/>
       <c r="D335">
@@ -4846,7 +4846,7 @@
         <v>2021</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C336">
         <v>7178</v>
@@ -4858,7 +4858,7 @@
     <row r="337" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337"/>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>8</v>
@@ -4872,7 +4872,7 @@
         <v>2021</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>9255</v>
@@ -4884,7 +4884,7 @@
     <row r="339" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339"/>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C339">
         <v>4</v>
@@ -4898,7 +4898,7 @@
         <v>2021</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C340">
         <v>9732</v>
@@ -4910,7 +4910,7 @@
     <row r="341" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341"/>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C341">
         <v>10</v>
@@ -4924,7 +4924,7 @@
         <v>2021</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C342">
         <v>3613</v>
@@ -4936,7 +4936,7 @@
     <row r="343" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343"/>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C343">
         <v>12</v>
@@ -4950,7 +4950,7 @@
         <v>2021</v>
       </c>
       <c r="B344" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C344">
         <v>598</v>
@@ -4962,7 +4962,7 @@
     <row r="345" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345"/>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C345">
         <v>10</v>
@@ -4976,7 +4976,7 @@
         <v>2021</v>
       </c>
       <c r="B346" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C346">
         <v>8190</v>
@@ -4988,7 +4988,7 @@
     <row r="347" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347"/>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C347">
         <v>12</v>
@@ -5002,7 +5002,7 @@
         <v>2021</v>
       </c>
       <c r="B348" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C348"/>
       <c r="D348">
@@ -5014,7 +5014,7 @@
     <row r="349" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349"/>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C349"/>
       <c r="D349">
@@ -5028,7 +5028,7 @@
         <v>2021</v>
       </c>
       <c r="B350" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C350"/>
       <c r="D350">
@@ -5040,7 +5040,7 @@
     <row r="351" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351"/>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C351"/>
       <c r="D351">
@@ -5054,7 +5054,7 @@
         <v>2021</v>
       </c>
       <c r="B352" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C352"/>
       <c r="D352">
@@ -5066,7 +5066,7 @@
     <row r="353" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353"/>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C353"/>
       <c r="D353">
@@ -5080,7 +5080,7 @@
         <v>2021</v>
       </c>
       <c r="B354" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C354"/>
       <c r="D354">
@@ -5092,7 +5092,7 @@
     <row r="355" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355"/>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C355"/>
       <c r="D355">
@@ -5106,7 +5106,7 @@
         <v>2021</v>
       </c>
       <c r="B356" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C356"/>
       <c r="D356">
@@ -5118,7 +5118,7 @@
     <row r="357" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357"/>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C357"/>
       <c r="D357">
@@ -5132,7 +5132,7 @@
         <v>2021</v>
       </c>
       <c r="B358" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C358"/>
       <c r="D358">
@@ -5144,7 +5144,7 @@
     <row r="359" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359"/>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C359"/>
       <c r="D359">
@@ -5158,7 +5158,7 @@
         <v>2021</v>
       </c>
       <c r="B360" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C360"/>
       <c r="D360">
@@ -5170,7 +5170,7 @@
     <row r="361" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361"/>
       <c r="B361" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C361"/>
       <c r="D361">
@@ -5184,7 +5184,7 @@
         <v>2023</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C362"/>
       <c r="D362">
@@ -5196,7 +5196,7 @@
     <row r="363" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363"/>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C363"/>
       <c r="D363">
@@ -5210,7 +5210,7 @@
         <v>2023</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>3603</v>
@@ -5222,7 +5222,7 @@
     <row r="365" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365"/>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C365">
         <v>5</v>
@@ -5236,7 +5236,7 @@
         <v>2023</v>
       </c>
       <c r="B366" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C366">
         <v>4238</v>
@@ -5248,7 +5248,7 @@
     <row r="367" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367"/>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C367">
         <v>6</v>
@@ -5262,7 +5262,7 @@
         <v>2023</v>
       </c>
       <c r="B368" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C368">
         <v>4212</v>
@@ -5274,7 +5274,7 @@
     <row r="369" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369"/>
       <c r="B369" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C369">
         <v>9</v>
@@ -5288,7 +5288,7 @@
         <v>2023</v>
       </c>
       <c r="B370" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C370">
         <v>7821</v>
@@ -5300,7 +5300,7 @@
     <row r="371" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371"/>
       <c r="B371" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C371">
         <v>4</v>
@@ -5314,7 +5314,7 @@
         <v>2023</v>
       </c>
       <c r="B372" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C372">
         <v>3745</v>
@@ -5326,7 +5326,7 @@
     <row r="373" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373"/>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C373">
         <v>4</v>
@@ -5340,7 +5340,7 @@
         <v>2023</v>
       </c>
       <c r="B374" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C374"/>
       <c r="D374">
@@ -5352,7 +5352,7 @@
     <row r="375" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375"/>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C375"/>
       <c r="D375">
@@ -5366,7 +5366,7 @@
         <v>2023</v>
       </c>
       <c r="B376" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C376"/>
       <c r="D376">
@@ -5378,7 +5378,7 @@
     <row r="377" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377"/>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C377"/>
       <c r="D377">
@@ -5392,7 +5392,7 @@
         <v>2023</v>
       </c>
       <c r="B378" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C378"/>
       <c r="D378">
@@ -5404,7 +5404,7 @@
     <row r="379" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379"/>
       <c r="B379" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C379"/>
       <c r="D379">
@@ -5418,7 +5418,7 @@
         <v>2023</v>
       </c>
       <c r="B380" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C380"/>
       <c r="D380">
@@ -5430,7 +5430,7 @@
     <row r="381" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381"/>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C381"/>
       <c r="D381">
@@ -5444,7 +5444,7 @@
         <v>2023</v>
       </c>
       <c r="B382" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C382"/>
       <c r="D382">
@@ -5456,7 +5456,7 @@
     <row r="383" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383"/>
       <c r="B383" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C383"/>
       <c r="D383">
@@ -5470,7 +5470,7 @@
         <v>2023</v>
       </c>
       <c r="B384" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C384"/>
       <c r="D384">
@@ -5482,7 +5482,7 @@
     <row r="385" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385"/>
       <c r="B385" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C385"/>
       <c r="D385">
@@ -5496,7 +5496,7 @@
         <v>2023</v>
       </c>
       <c r="B386" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C386">
         <v>3811</v>
@@ -5508,7 +5508,7 @@
     <row r="387" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387"/>
       <c r="B387" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C387">
         <v>5</v>
@@ -5522,7 +5522,7 @@
         <v>2023</v>
       </c>
       <c r="B388" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C388">
         <v>3932</v>
@@ -5534,7 +5534,7 @@
     <row r="389" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389"/>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C389">
         <v>6</v>
@@ -5548,7 +5548,7 @@
         <v>2023</v>
       </c>
       <c r="B390" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C390">
         <v>2566</v>
@@ -5560,7 +5560,7 @@
     <row r="391" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391"/>
       <c r="B391" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C391">
         <v>10</v>
@@ -5574,7 +5574,7 @@
         <v>2023</v>
       </c>
       <c r="B392" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C392">
         <v>946</v>
@@ -5586,7 +5586,7 @@
     <row r="393" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393"/>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C393">
         <v>9</v>
@@ -5600,7 +5600,7 @@
         <v>2023</v>
       </c>
       <c r="B394" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C394">
         <v>6949</v>
@@ -5612,7 +5612,7 @@
     <row r="395" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395"/>
       <c r="B395" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C395">
         <v>7</v>
@@ -5626,7 +5626,7 @@
         <v>2023</v>
       </c>
       <c r="B396" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C396"/>
       <c r="D396"/>
@@ -5638,7 +5638,7 @@
     <row r="397" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397"/>
       <c r="B397" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C397"/>
       <c r="D397"/>
@@ -5652,7 +5652,7 @@
         <v>2023</v>
       </c>
       <c r="B398" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C398"/>
       <c r="D398"/>
@@ -5664,7 +5664,7 @@
     <row r="399" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399"/>
       <c r="B399" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C399"/>
       <c r="D399"/>
@@ -5678,7 +5678,7 @@
         <v>2023</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C400"/>
       <c r="D400"/>
@@ -5690,7 +5690,7 @@
     <row r="401" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401"/>
       <c r="B401" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C401"/>
       <c r="D401"/>
@@ -5704,7 +5704,7 @@
         <v>2023</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C402"/>
       <c r="D402"/>
@@ -5716,7 +5716,7 @@
     <row r="403" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403"/>
       <c r="B403" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C403"/>
       <c r="D403"/>
@@ -5730,7 +5730,7 @@
         <v>2025</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C404"/>
       <c r="D404"/>
@@ -5742,7 +5742,7 @@
     <row r="405" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405"/>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C405"/>
       <c r="D405"/>
@@ -5756,7 +5756,7 @@
         <v>2025</v>
       </c>
       <c r="B406" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C406"/>
       <c r="D406"/>
@@ -5768,7 +5768,7 @@
     <row r="407" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407"/>
       <c r="B407" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C407"/>
       <c r="D407"/>
@@ -5782,7 +5782,7 @@
         <v>2025</v>
       </c>
       <c r="B408" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C408"/>
       <c r="D408"/>
@@ -5794,7 +5794,7 @@
     <row r="409" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409"/>
       <c r="B409" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C409"/>
       <c r="D409"/>
@@ -5808,7 +5808,7 @@
         <v>2025</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C410"/>
       <c r="D410"/>
@@ -5820,7 +5820,7 @@
     <row r="411" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411"/>
       <c r="B411" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C411"/>
       <c r="D411"/>
@@ -5834,7 +5834,7 @@
         <v>2025</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C412"/>
       <c r="D412"/>
@@ -5846,7 +5846,7 @@
     <row r="413" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413"/>
       <c r="B413" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C413"/>
       <c r="D413"/>
@@ -5860,7 +5860,7 @@
         <v>2025</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C414"/>
       <c r="D414"/>
@@ -5872,7 +5872,7 @@
     <row r="415" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415"/>
       <c r="B415" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C415"/>
       <c r="D415"/>
@@ -5886,7 +5886,7 @@
         <v>2025</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C416"/>
       <c r="D416">
@@ -5898,7 +5898,7 @@
     <row r="417" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417"/>
       <c r="B417" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C417"/>
       <c r="D417">
@@ -5912,7 +5912,7 @@
         <v>2025</v>
       </c>
       <c r="B418" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C418"/>
       <c r="D418">
@@ -5924,7 +5924,7 @@
     <row r="419" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419"/>
       <c r="B419" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C419"/>
       <c r="D419">
@@ -5938,7 +5938,7 @@
         <v>2025</v>
       </c>
       <c r="B420" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C420">
         <v>806</v>
@@ -5950,7 +5950,7 @@
     <row r="421" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421"/>
       <c r="B421" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C421">
         <v>12</v>
@@ -5964,7 +5964,7 @@
         <v>2025</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C422">
         <v>5202</v>
@@ -5976,7 +5976,7 @@
     <row r="423" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423"/>
       <c r="B423" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C423">
         <v>6</v>
@@ -5990,7 +5990,7 @@
         <v>2025</v>
       </c>
       <c r="B424" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C424">
         <v>9994</v>
@@ -6002,7 +6002,7 @@
     <row r="425" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425"/>
       <c r="B425" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C425">
         <v>9</v>
@@ -6016,7 +6016,7 @@
         <v>2025</v>
       </c>
       <c r="B426" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C426">
         <v>8452</v>
@@ -6028,7 +6028,7 @@
     <row r="427" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427"/>
       <c r="B427" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C427">
         <v>11</v>
@@ -6042,7 +6042,7 @@
         <v>2025</v>
       </c>
       <c r="B428" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C428">
         <v>9069</v>
@@ -6054,7 +6054,7 @@
     <row r="429" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429"/>
       <c r="B429" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C429">
         <v>8</v>
@@ -6068,7 +6068,7 @@
         <v>2025</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C430">
         <v>8742</v>
@@ -6080,7 +6080,7 @@
     <row r="431" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431"/>
       <c r="B431" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C431">
         <v>7</v>
@@ -6094,7 +6094,7 @@
         <v>2025</v>
       </c>
       <c r="B432" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C432">
         <v>8724</v>
@@ -6106,7 +6106,7 @@
     <row r="433" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433"/>
       <c r="B433" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C433">
         <v>10</v>
@@ -6120,7 +6120,7 @@
         <v>2025</v>
       </c>
       <c r="B434" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C434">
         <v>6916</v>
@@ -6132,7 +6132,7 @@
     <row r="435" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435"/>
       <c r="B435" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C435">
         <v>9</v>
@@ -6146,7 +6146,7 @@
         <v>2025</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C436">
         <v>8630</v>
@@ -6158,7 +6158,7 @@
     <row r="437" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437"/>
       <c r="B437" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C437">
         <v>9</v>
@@ -6172,7 +6172,7 @@
         <v>2025</v>
       </c>
       <c r="B438" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C438"/>
       <c r="D438">
@@ -6184,7 +6184,7 @@
     <row r="439" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439"/>
       <c r="B439" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C439"/>
       <c r="D439">
@@ -6195,5 +6195,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>